--- a/Active_test_datasheetLimpio.xlsx
+++ b/Active_test_datasheetLimpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F652D809-9588-4867-9FE1-01058FB6131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA7FB9-B68A-4CF4-9F32-0BB0FEB6DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7A84985-C86F-48A7-9D52-09A3D5F21FA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="381">
   <si>
     <t>start test time</t>
   </si>
@@ -1181,51 +1181,6 @@
   </si>
   <si>
     <t>2024-03-08 16:01:23</t>
-  </si>
-  <si>
-    <t>Test No.</t>
-  </si>
-  <si>
-    <t>Script No.</t>
-  </si>
-  <si>
-    <t>Video packet loss rate</t>
-  </si>
-  <si>
-    <t>Audio packet loss rate</t>
-  </si>
-  <si>
-    <t>Video bitrate (avg)</t>
-  </si>
-  <si>
-    <t>Audio bitrate (avg)</t>
-  </si>
-  <si>
-    <t>Video RTT (avg)</t>
-  </si>
-  <si>
-    <t>Video Jitter (avg)</t>
-  </si>
-  <si>
-    <t>Audio RTT (avg)</t>
-  </si>
-  <si>
-    <t>Overall quality of video call</t>
-  </si>
-  <si>
-    <t>Audio quality of video call</t>
-  </si>
-  <si>
-    <t>Video quality of video call</t>
-  </si>
-  <si>
-    <t>Level of video freezing</t>
-  </si>
-  <si>
-    <t>Rate on the experience of delay</t>
-  </si>
-  <si>
-    <t>Effort required to interrupt</t>
   </si>
 </sst>
 </file>
@@ -1597,15 +1552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838F86E-F7D7-45F8-BFCB-E2C1FDDBC2BE}">
-  <dimension ref="A1:AS331"/>
+  <dimension ref="A1:Z331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1765,7 +1720,7 @@
         <v>3.9989999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1845,7 +1800,7 @@
         <v>3.9989999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +1880,7 @@
         <v>6.5993999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2004,53 +1959,8 @@
       <c r="Z5">
         <v>6.5993999999999997E-2</v>
       </c>
-      <c r="AE5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>391</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>393</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2130,7 +2040,7 @@
         <v>4.4601000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2209,53 +2119,8 @@
       <c r="Z7">
         <v>4.4601000000000002E-2</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>950.12</v>
-      </c>
-      <c r="AJ7">
-        <v>58.779090909090925</v>
-      </c>
-      <c r="AK7">
-        <v>1.1400909090909093E-2</v>
-      </c>
-      <c r="AL7">
-        <v>2.6994545454545452E-2</v>
-      </c>
-      <c r="AM7">
-        <v>1.4819842922233761E-2</v>
-      </c>
-      <c r="AN7">
-        <v>4.6818181818181817</v>
-      </c>
-      <c r="AO7">
-        <v>4.8181818181818183</v>
-      </c>
-      <c r="AP7">
-        <v>4.7727272727272725</v>
-      </c>
-      <c r="AQ7">
-        <v>5</v>
-      </c>
-      <c r="AR7">
-        <v>4.8636363636363633</v>
-      </c>
-      <c r="AS7">
-        <v>4.9545454545454541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2334,53 +2199,8 @@
       <c r="Z8">
         <v>4.0543000000000003E-2</v>
       </c>
-      <c r="AE8">
-        <v>5</v>
-      </c>
-      <c r="AF8">
-        <v>2</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>783.53090909090906</v>
-      </c>
-      <c r="AJ8">
-        <v>59.608181818181812</v>
-      </c>
-      <c r="AK8">
-        <v>0.96561909090909037</v>
-      </c>
-      <c r="AL8">
-        <v>7.2380000000000028E-2</v>
-      </c>
-      <c r="AM8">
-        <v>0.95224880597099648</v>
-      </c>
-      <c r="AN8">
-        <v>3.3636363636363638</v>
-      </c>
-      <c r="AO8">
-        <v>3.5</v>
-      </c>
-      <c r="AP8">
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="AQ8">
-        <v>4.4545454545454541</v>
-      </c>
-      <c r="AR8">
-        <v>2.8181818181818183</v>
-      </c>
-      <c r="AS8">
-        <v>3.2727272727272729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2459,53 +2279,8 @@
       <c r="Z9">
         <v>4.0543000000000003E-2</v>
       </c>
-      <c r="AE9">
-        <v>7</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>867.32181818181823</v>
-      </c>
-      <c r="AJ9">
-        <v>58.907727272727271</v>
-      </c>
-      <c r="AK9">
-        <v>0.23046363636363634</v>
-      </c>
-      <c r="AL9">
-        <v>3.3115454545454545E-2</v>
-      </c>
-      <c r="AM9">
-        <v>0.22621321865118621</v>
-      </c>
-      <c r="AN9">
-        <v>4.0454545454545459</v>
-      </c>
-      <c r="AO9">
-        <v>4.3636363636363633</v>
-      </c>
-      <c r="AP9">
-        <v>3.8636363636363638</v>
-      </c>
-      <c r="AQ9">
-        <v>4.9090909090909092</v>
-      </c>
-      <c r="AR9">
-        <v>4.2272727272727275</v>
-      </c>
-      <c r="AS9">
-        <v>4.8181818181818183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2584,53 +2359,8 @@
       <c r="Z10">
         <v>5.3145999999999999E-2</v>
       </c>
-      <c r="AE10">
-        <v>8</v>
-      </c>
-      <c r="AF10">
-        <v>4</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>950.89090909090908</v>
-      </c>
-      <c r="AJ10">
-        <v>59.214545454545465</v>
-      </c>
-      <c r="AK10">
-        <v>2.2244545454545451E-2</v>
-      </c>
-      <c r="AL10">
-        <v>3.353363636363637E-2</v>
-      </c>
-      <c r="AM10">
-        <v>2.3337603296621677E-2</v>
-      </c>
-      <c r="AN10">
-        <v>4.5</v>
-      </c>
-      <c r="AO10">
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="AP10">
-        <v>4.5909090909090908</v>
-      </c>
-      <c r="AQ10">
-        <v>4.9090909090909092</v>
-      </c>
-      <c r="AR10">
-        <v>4.6363636363636367</v>
-      </c>
-      <c r="AS10">
-        <v>4.7727272727272725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2709,53 +2439,8 @@
       <c r="Z11">
         <v>5.3145999999999999E-2</v>
       </c>
-      <c r="AE11">
-        <v>9</v>
-      </c>
-      <c r="AF11">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>541.69863636363641</v>
-      </c>
-      <c r="AJ11">
-        <v>59.544090909090919</v>
-      </c>
-      <c r="AK11">
-        <v>1.0447454545454542</v>
-      </c>
-      <c r="AL11">
-        <v>4.89490909090909E-2</v>
-      </c>
-      <c r="AM11">
-        <v>1.0353632185385797</v>
-      </c>
-      <c r="AN11">
-        <v>2.8636363636363638</v>
-      </c>
-      <c r="AO11">
-        <v>3.2272727272727271</v>
-      </c>
-      <c r="AP11">
-        <v>3.5909090909090908</v>
-      </c>
-      <c r="AQ11">
-        <v>4.2727272727272725</v>
-      </c>
-      <c r="AR11">
-        <v>2.1818181818181817</v>
-      </c>
-      <c r="AS11">
-        <v>2.8181818181818183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2834,53 +2519,8 @@
       <c r="Z12">
         <v>8.1985000000000002E-2</v>
       </c>
-      <c r="AE12">
-        <v>10</v>
-      </c>
-      <c r="AF12">
-        <v>6</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>588.30409090909097</v>
-      </c>
-      <c r="AJ12">
-        <v>59.678636363636365</v>
-      </c>
-      <c r="AK12">
-        <v>0.24582999999999997</v>
-      </c>
-      <c r="AL12">
-        <v>3.1377272727272733E-2</v>
-      </c>
-      <c r="AM12">
-        <v>0.24226398863020418</v>
-      </c>
-      <c r="AN12">
-        <v>4.0909090909090908</v>
-      </c>
-      <c r="AO12">
-        <v>4.1363636363636367</v>
-      </c>
-      <c r="AP12">
-        <v>3.9545454545454546</v>
-      </c>
-      <c r="AQ12">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="AR12">
-        <v>3.5454545454545454</v>
-      </c>
-      <c r="AS12">
-        <v>4.2727272727272725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2959,53 +2599,8 @@
       <c r="Z13">
         <v>8.1985000000000002E-2</v>
       </c>
-      <c r="AE13">
-        <v>11</v>
-      </c>
-      <c r="AF13">
-        <v>7</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>619.78909090909087</v>
-      </c>
-      <c r="AJ13">
-        <v>59.099545454545456</v>
-      </c>
-      <c r="AK13">
-        <v>3.2654545454545457E-2</v>
-      </c>
-      <c r="AL13">
-        <v>3.0251818181818192E-2</v>
-      </c>
-      <c r="AM13">
-        <v>3.5265925618300865E-2</v>
-      </c>
-      <c r="AN13">
-        <v>4.1818181818181817</v>
-      </c>
-      <c r="AO13">
-        <v>4.1363636363636367</v>
-      </c>
-      <c r="AP13">
-        <v>3.9545454545454546</v>
-      </c>
-      <c r="AQ13">
-        <v>4.8181818181818183</v>
-      </c>
-      <c r="AR13">
-        <v>4.2727272727272725</v>
-      </c>
-      <c r="AS13">
-        <v>4.8181818181818183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3084,53 +2679,8 @@
       <c r="Z14">
         <v>4.0739999999999998E-2</v>
       </c>
-      <c r="AE14">
-        <v>15</v>
-      </c>
-      <c r="AF14">
-        <v>8</v>
-      </c>
-      <c r="AG14">
-        <v>3.0036363636363634</v>
-      </c>
-      <c r="AH14">
-        <v>49.722272727272731</v>
-      </c>
-      <c r="AI14">
-        <v>853.07227272727255</v>
-      </c>
-      <c r="AJ14">
-        <v>30.765000000000001</v>
-      </c>
-      <c r="AK14">
-        <v>1.4145454545454544E-2</v>
-      </c>
-      <c r="AL14">
-        <v>3.2228181818181822E-2</v>
-      </c>
-      <c r="AM14">
-        <v>2.2227035382711622E-2</v>
-      </c>
-      <c r="AN14">
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="AO14">
-        <v>2.0454545454545454</v>
-      </c>
-      <c r="AP14">
-        <v>1.3181818181818181</v>
-      </c>
-      <c r="AQ14">
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="AR14">
-        <v>2.4545454545454546</v>
-      </c>
-      <c r="AS14">
-        <v>2.7727272727272729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3209,53 +2759,8 @@
       <c r="Z15">
         <v>4.0739999999999998E-2</v>
       </c>
-      <c r="AE15">
-        <v>16</v>
-      </c>
-      <c r="AF15">
-        <v>9</v>
-      </c>
-      <c r="AG15">
-        <v>3.0036363636363643</v>
-      </c>
-      <c r="AH15">
-        <v>49.810909090909085</v>
-      </c>
-      <c r="AI15">
-        <v>696.65500000000009</v>
-      </c>
-      <c r="AJ15">
-        <v>30.392272727272726</v>
-      </c>
-      <c r="AK15">
-        <v>1.7985454545454544E-2</v>
-      </c>
-      <c r="AL15">
-        <v>3.4007272727272726E-2</v>
-      </c>
-      <c r="AM15">
-        <v>2.4480514481415049E-2</v>
-      </c>
-      <c r="AN15">
-        <v>1.6363636363636365</v>
-      </c>
-      <c r="AO15">
-        <v>2.1363636363636362</v>
-      </c>
-      <c r="AP15">
-        <v>1.3181818181818181</v>
-      </c>
-      <c r="AQ15">
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="AR15">
-        <v>2.6818181818181817</v>
-      </c>
-      <c r="AS15">
-        <v>2.5909090909090908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3334,53 +2839,8 @@
       <c r="Z16">
         <v>4.7501000000000002E-2</v>
       </c>
-      <c r="AE16">
-        <v>17</v>
-      </c>
-      <c r="AF16">
-        <v>10</v>
-      </c>
-      <c r="AG16">
-        <v>3.0072727272727273</v>
-      </c>
-      <c r="AH16">
-        <v>50.083181818181828</v>
-      </c>
-      <c r="AI16">
-        <v>495.96999999999991</v>
-      </c>
-      <c r="AJ16">
-        <v>30.611818181818172</v>
-      </c>
-      <c r="AK16">
-        <v>3.2482727272727281E-2</v>
-      </c>
-      <c r="AL16">
-        <v>3.6011818181818173E-2</v>
-      </c>
-      <c r="AM16">
-        <v>3.7980597273862847E-2</v>
-      </c>
-      <c r="AN16">
-        <v>1.6818181818181819</v>
-      </c>
-      <c r="AO16">
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="AP16">
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="AQ16">
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="AR16">
-        <v>2.4545454545454546</v>
-      </c>
-      <c r="AS16">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3459,53 +2919,8 @@
       <c r="Z17">
         <v>4.7501000000000002E-2</v>
       </c>
-      <c r="AE17">
-        <v>20</v>
-      </c>
-      <c r="AF17">
-        <v>11</v>
-      </c>
-      <c r="AG17">
-        <v>0.50227272727272709</v>
-      </c>
-      <c r="AH17">
-        <v>20.08818181818182</v>
-      </c>
-      <c r="AI17">
-        <v>548.74272727272728</v>
-      </c>
-      <c r="AJ17">
-        <v>48.089545454545458</v>
-      </c>
-      <c r="AK17">
-        <v>0.24690545454545451</v>
-      </c>
-      <c r="AL17">
-        <v>3.5922727272727266E-2</v>
-      </c>
-      <c r="AM17">
-        <v>0.24399371152865149</v>
-      </c>
-      <c r="AN17">
-        <v>2.1363636363636362</v>
-      </c>
-      <c r="AO17">
-        <v>2.7272727272727271</v>
-      </c>
-      <c r="AP17">
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <v>3.2727272727272729</v>
-      </c>
-      <c r="AS17">
-        <v>3.3636363636363638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3584,53 +2999,8 @@
       <c r="Z18">
         <v>4.5517000000000002E-2</v>
       </c>
-      <c r="AE18">
-        <v>21</v>
-      </c>
-      <c r="AF18">
-        <v>12</v>
-      </c>
-      <c r="AG18">
-        <v>2.9859090909090908</v>
-      </c>
-      <c r="AH18">
-        <v>50.090454545454534</v>
-      </c>
-      <c r="AI18">
-        <v>486.63863636363635</v>
-      </c>
-      <c r="AJ18">
-        <v>30.482272727272733</v>
-      </c>
-      <c r="AK18">
-        <v>0.2426527272727273</v>
-      </c>
-      <c r="AL18">
-        <v>3.8808181818181818E-2</v>
-      </c>
-      <c r="AM18">
-        <v>0.23607302868257338</v>
-      </c>
-      <c r="AN18">
-        <v>1.6818181818181819</v>
-      </c>
-      <c r="AO18">
-        <v>1.9545454545454546</v>
-      </c>
-      <c r="AP18">
-        <v>1.3181818181818181</v>
-      </c>
-      <c r="AQ18">
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="AR18">
-        <v>2.5</v>
-      </c>
-      <c r="AS18">
-        <v>2.4545454545454546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3709,53 +3079,8 @@
       <c r="Z19">
         <v>4.5517000000000002E-2</v>
       </c>
-      <c r="AE19">
-        <v>22</v>
-      </c>
-      <c r="AF19">
-        <v>13</v>
-      </c>
-      <c r="AG19">
-        <v>0.50681818181818195</v>
-      </c>
-      <c r="AH19">
-        <v>19.909999999999997</v>
-      </c>
-      <c r="AI19">
-        <v>810.01818181818169</v>
-      </c>
-      <c r="AJ19">
-        <v>48.918181818181807</v>
-      </c>
-      <c r="AK19">
-        <v>0.97648454545454544</v>
-      </c>
-      <c r="AL19">
-        <v>6.9731818181818159E-2</v>
-      </c>
-      <c r="AM19">
-        <v>0.96051804345254443</v>
-      </c>
-      <c r="AN19">
-        <v>1.6818181818181819</v>
-      </c>
-      <c r="AO19">
-        <v>2.2272727272727271</v>
-      </c>
-      <c r="AP19">
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="AQ19">
-        <v>1.6363636363636365</v>
-      </c>
-      <c r="AR19">
-        <v>2.2272727272727271</v>
-      </c>
-      <c r="AS19">
-        <v>2.5909090909090908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3834,53 +3159,8 @@
       <c r="Z20">
         <v>3.1265000000000001E-2</v>
       </c>
-      <c r="AE20">
-        <v>26</v>
-      </c>
-      <c r="AF20">
-        <v>14</v>
-      </c>
-      <c r="AG20">
-        <v>0.49681818181818183</v>
-      </c>
-      <c r="AH20">
-        <v>19.99217391304348</v>
-      </c>
-      <c r="AI20">
-        <v>749.875</v>
-      </c>
-      <c r="AJ20">
-        <v>47.68181818181818</v>
-      </c>
-      <c r="AK20">
-        <v>0.2276772727272727</v>
-      </c>
-      <c r="AL20">
-        <v>3.6074545454545456E-2</v>
-      </c>
-      <c r="AM20">
-        <v>0.2226841463622635</v>
-      </c>
-      <c r="AN20">
-        <v>2.2272727272727271</v>
-      </c>
-      <c r="AO20">
-        <v>2.9090909090909092</v>
-      </c>
-      <c r="AP20">
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="AQ20">
-        <v>1.6363636363636365</v>
-      </c>
-      <c r="AR20">
-        <v>3.0909090909090908</v>
-      </c>
-      <c r="AS20">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3959,53 +3239,8 @@
       <c r="Z21">
         <v>3.1265000000000001E-2</v>
       </c>
-      <c r="AE21">
-        <v>29</v>
-      </c>
-      <c r="AF21">
-        <v>15</v>
-      </c>
-      <c r="AG21">
-        <v>2.996363636363637</v>
-      </c>
-      <c r="AH21">
-        <v>50.108636363636371</v>
-      </c>
-      <c r="AI21">
-        <v>465.03772727272741</v>
-      </c>
-      <c r="AJ21">
-        <v>30.221363636363638</v>
-      </c>
-      <c r="AK21">
-        <v>1.0336318181818183</v>
-      </c>
-      <c r="AL21">
-        <v>6.2173636363636368E-2</v>
-      </c>
-      <c r="AM21">
-        <v>1.00605383793466</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="AS21">
-        <v>1.4545454545454546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -4085,7 +3320,7 @@
         <v>4.7149999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -4165,7 +3400,7 @@
         <v>4.7149999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -4245,7 +3480,7 @@
         <v>1.0946199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -4325,7 +3560,7 @@
         <v>1.0946199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -4405,7 +3640,7 @@
         <v>1.1200559999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -4485,7 +3720,7 @@
         <v>1.1200559999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -4565,7 +3800,7 @@
         <v>1.08873</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -4645,7 +3880,7 @@
         <v>1.08873</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -4725,7 +3960,7 @@
         <v>1.11087</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -4805,7 +4040,7 @@
         <v>1.11087</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
